--- a/public/excel/import/fertilizers.xlsx
+++ b/public/excel/import/fertilizers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Наименование</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>ddd</t>
+  </si>
+  <si>
+    <t>aaaaaaaaa1</t>
+  </si>
+  <si>
+    <t>aaa1</t>
+  </si>
+  <si>
+    <t>bbb1</t>
+  </si>
+  <si>
+    <t>ccc1</t>
   </si>
 </sst>
 </file>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +557,122 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1111</v>
+      </c>
+      <c r="C6">
+        <v>1111</v>
+      </c>
+      <c r="D6">
+        <v>1111</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>1111</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
